--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3482.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3482.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192286289780788</v>
+        <v>0.7466333508491516</v>
       </c>
       <c r="B1">
-        <v>2.420537420348524</v>
+        <v>1.996257543563843</v>
       </c>
       <c r="C1">
-        <v>7.968795715987695</v>
+        <v>3.996880531311035</v>
       </c>
       <c r="D1">
-        <v>2.776312690765211</v>
+        <v>3.536841154098511</v>
       </c>
       <c r="E1">
-        <v>1.401128810923233</v>
+        <v>2.019597291946411</v>
       </c>
     </row>
   </sheetData>
